--- a/Docs/opCode.xlsx
+++ b/Docs/opCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP\CMP5\Arch\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP\CMP5\Arch\project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED57B9C3-FDF2-41C9-9E98-BBFC63910375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38311B-E13D-41F4-B139-12566D6DABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>00_001_000</t>
   </si>
@@ -172,18 +172,6 @@
     <t>RTI</t>
   </si>
   <si>
-    <t>11_110_010</t>
-  </si>
-  <si>
-    <t>INTR</t>
-  </si>
-  <si>
-    <t>11_011_000</t>
-  </si>
-  <si>
-    <t>RESET</t>
-  </si>
-  <si>
     <t>10_111_000</t>
   </si>
   <si>
@@ -194,13 +182,100 @@
   </si>
   <si>
     <t>01_000_101</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2 operands src &amp; dst</t>
+  </si>
+  <si>
+    <t>2 operands dst &amp; immediate</t>
+  </si>
+  <si>
+    <t>1 operand dst</t>
+  </si>
+  <si>
+    <t>zero operands</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>ALU operation</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>JMP (Changes PC only)</t>
+  </si>
+  <si>
+    <t>something else</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>Changes PC and Stack</t>
+  </si>
+  <si>
+    <t>Changes Stack</t>
+  </si>
+  <si>
+    <t>B15:B14</t>
+  </si>
+  <si>
+    <t>B13:B11</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>B15:B8</t>
+  </si>
+  <si>
+    <t>Instruction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -210,6 +285,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -234,9 +314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,251 +538,368 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="3"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>

--- a/Docs/opCode.xlsx
+++ b/Docs/opCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP\CMP5\Arch\project\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3rd1st\Architecture\Project\Pipelined-Processor\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38311B-E13D-41F4-B139-12566D6DABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC6C752-3555-4653-9DF5-5D09808F4E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الورقة1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="162">
   <si>
     <t>00_001_000</t>
   </si>
@@ -269,6 +269,243 @@
   </si>
   <si>
     <t>Instruction</t>
+  </si>
+  <si>
+    <t>0_0_0</t>
+  </si>
+  <si>
+    <t>0_1_0</t>
+  </si>
+  <si>
+    <t>0_0_1</t>
+  </si>
+  <si>
+    <t>0_1_1</t>
+  </si>
+  <si>
+    <t>1_1_1</t>
+  </si>
+  <si>
+    <t>WB = 1</t>
+  </si>
+  <si>
+    <t>ALU = 1</t>
+  </si>
+  <si>
+    <t>ALU Ops = B13:B11</t>
+  </si>
+  <si>
+    <t>1 bit selector = 1 when  B15, B14 = 10</t>
+  </si>
+  <si>
+    <t>IMM = B15, B14 = 01</t>
+  </si>
+  <si>
+    <t>ALU Ops</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>MR=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALU by default equal zero </t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>WB = 0</t>
+  </si>
+  <si>
+    <t>MW = 1</t>
+  </si>
+  <si>
+    <t>MW = 0</t>
+  </si>
+  <si>
+    <t>MR=0</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>ALU</t>
+  </si>
+  <si>
+    <t>Imm</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>JUMP</t>
+  </si>
+  <si>
+    <t>2 bit flag selector = B12,B11</t>
+  </si>
+  <si>
+    <t>jmp =1</t>
+  </si>
+  <si>
+    <t>WB=0</t>
+  </si>
+  <si>
+    <t>MR,MW = 0,0</t>
+  </si>
+  <si>
+    <t>jmp</t>
+  </si>
+  <si>
+    <t>2 bit flag selector</t>
+  </si>
+  <si>
+    <t>s.th.else</t>
+  </si>
+  <si>
+    <t>jmp =0</t>
+  </si>
+  <si>
+    <t>2 bit flag selector = 0,0</t>
+  </si>
+  <si>
+    <t>ALU, SET_or_CLEAR</t>
+  </si>
+  <si>
+    <t>Zf ,NF, CF-&gt; ALU</t>
+  </si>
+  <si>
+    <t>CF -&gt; one bit define if there is setc or clrc</t>
+  </si>
+  <si>
+    <t>another bit it is clear or set</t>
+  </si>
+  <si>
+    <t>B13:B8</t>
+  </si>
+  <si>
+    <t>100_001= 11</t>
+  </si>
+  <si>
+    <t>100_000 = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 bits for carry</t>
+  </si>
+  <si>
+    <t>imm = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B15:B11: 11_100 = all signals will be zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B15:B11: 01_100  =  wb:1, imm:1 , else zero </t>
+  </si>
+  <si>
+    <t>Carry flag: old, new set, clear possible values</t>
+  </si>
+  <si>
+    <t>1 bit selector = 1 when  B15, B14 = 10 inc,dec</t>
+  </si>
+  <si>
+    <t>then check B13:B8</t>
+  </si>
+  <si>
+    <t>IN: in -&gt; reg</t>
+  </si>
+  <si>
+    <t>OUT: reg -&gt; out</t>
+  </si>
+  <si>
+    <t>B13:B11 = 101 all sgnals equal zero</t>
+  </si>
+  <si>
+    <t>then check B8 is 0 -&gt; in,  B8-&gt;1 out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B13:B11 &amp;&amp; B8 -&gt; IOW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B13:B11 &amp;&amp; !B8 -&gt; IOR </t>
+  </si>
+  <si>
+    <t>IOR</t>
+  </si>
+  <si>
+    <t>IOW</t>
+  </si>
+  <si>
+    <t>IOR,IOW = 0,0</t>
+  </si>
+  <si>
+    <t>changes pc &amp; stack</t>
+  </si>
+  <si>
+    <t>push &amp; pop</t>
+  </si>
+  <si>
+    <t>B13:B11 &amp;&amp; !B8 = 1 push MW =1</t>
+  </si>
+  <si>
+    <t>B13:B11 &amp;&amp; B8 = 1 pop  MR =1 WB =1</t>
+  </si>
+  <si>
+    <t>rest is zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 bits for push pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmp =1 flag selectors 1 1 MW =1 </t>
+  </si>
+  <si>
+    <t>*(push signal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack pointer have to be changed in memory unit not in execution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B13:B11 = 110 </t>
+  </si>
+  <si>
+    <t>stack pc =1</t>
+  </si>
+  <si>
+    <t>B13:B8 = 110_001</t>
+  </si>
+  <si>
+    <t>stack flags</t>
+  </si>
+  <si>
+    <t>B15: B11 = 11_110 :  jwsp=1 , pop = 1 ,  MW = 1</t>
+  </si>
+  <si>
+    <t>signal Call = 1 when B15:B11 = 10_110 push = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgnal that there is push or pop --&gt; sp </t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Stack pc &amp; stack flgs MW, sp, Push = all equal one</t>
+  </si>
+  <si>
+    <t>2 bitsstack pc stack flags</t>
+  </si>
+  <si>
+    <t>eslam</t>
+  </si>
+  <si>
+    <t>khaled</t>
+  </si>
+  <si>
+    <t>76_543_210</t>
   </si>
 </sst>
 </file>
@@ -538,35 +775,109 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="3"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -574,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -582,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -590,87 +901,180 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -678,7 +1082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -686,39 +1090,78 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -726,39 +1169,78 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -766,27 +1248,85 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
@@ -794,55 +1334,123 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B41" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>63</v>
       </c>
@@ -850,7 +1458,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>64</v>
       </c>
@@ -858,44 +1466,180 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/opCode.xlsx
+++ b/Docs/opCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP\CMP5\Arch\project\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\subjects\3-1\Compuer arch\project\Git\Pipelined-Processor\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38311B-E13D-41F4-B139-12566D6DABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DDF5CE-3C3D-4C7D-B713-8D039FDF4925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الورقة1" sheetId="1" r:id="rId1"/>
@@ -538,19 +538,20 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="3"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
@@ -558,135 +559,221 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -694,7 +781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -702,7 +789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -710,7 +797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -718,7 +805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -726,7 +813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -734,7 +821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -742,7 +829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -750,7 +837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -758,7 +845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -766,7 +853,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -774,129 +861,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
